--- a/dict/checklist.xlsx
+++ b/dict/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futingyao\Desktop\automaticChecklist\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C625B3-0DBB-4575-9BA2-F8CA362C92F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FCE97-86FF-42A9-A6E7-9A99E4A15C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
